--- a/exports/UD_French-FQB/VERB-direct-obj.xlsx
+++ b/exports/UD_French-FQB/VERB-direct-obj.xlsx
@@ -921,7 +921,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t xml:space="preserve">Où la troupe "FreightTrain Shakespeare" </t>
+          <t xml:space="preserve">Où la troupe ""FreightTrain Shakespeare"" </t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -931,7 +931,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t xml:space="preserve">-t-elle "Henry V" ? </t>
+          <t xml:space="preserve">-t-elle ""Henry V"" ? </t>
         </is>
       </c>
     </row>
@@ -1063,7 +1063,7 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t xml:space="preserve"> "Le dilemme américain" ? </t>
+          <t xml:space="preserve"> ""Le dilemme américain"" ? </t>
         </is>
       </c>
     </row>
@@ -1129,7 +1129,7 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t xml:space="preserve"> "Le hurlement" ? </t>
+          <t xml:space="preserve"> ""Le hurlement"" ? </t>
         </is>
       </c>
     </row>
@@ -1433,7 +1433,7 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t xml:space="preserve"> "kain ayinhore" ? </t>
+          <t xml:space="preserve"> ""kain ayinhore"" ? </t>
         </is>
       </c>
     </row>
@@ -1477,7 +1477,7 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t xml:space="preserve">-t-on à la "maladie de la vache folle" ? </t>
+          <t xml:space="preserve">-t-on à la ""maladie de la vache folle"" ? </t>
         </is>
       </c>
     </row>
@@ -1745,7 +1745,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t xml:space="preserve">Combien d'Oscars le film "Sur les quais" a-t-il </t>
+          <t xml:space="preserve">Combien d'Oscars le film ""Sur les quais"" a-t-il </t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -1795,7 +1795,7 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t xml:space="preserve"> l'Oscar pour "La belle et la bête" ? </t>
+          <t xml:space="preserve"> l'Oscar pour ""La belle et la bête"" ? </t>
         </is>
       </c>
     </row>
@@ -1945,7 +1945,7 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t xml:space="preserve"> l'acronyme "PERS" ? </t>
+          <t xml:space="preserve"> l'acronyme ""PERS"" ? </t>
         </is>
       </c>
     </row>
@@ -2055,7 +2055,7 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t xml:space="preserve"> la minisérie "Holocauste" de Steven Spielberg ? </t>
+          <t xml:space="preserve"> la minisérie ""Holocauste"" de Steven Spielberg ? </t>
         </is>
       </c>
     </row>
@@ -2231,7 +2231,7 @@
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t xml:space="preserve"> "L'archipel du Goulag" ? </t>
+          <t xml:space="preserve"> ""L'archipel du Goulag"" ? </t>
         </is>
       </c>
     </row>
@@ -2509,7 +2509,7 @@
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t xml:space="preserve"> les "flèches circulaires" ? </t>
+          <t xml:space="preserve"> les ""flèches circulaires"" ? </t>
         </is>
       </c>
     </row>
@@ -2813,7 +2813,7 @@
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t xml:space="preserve"> le rôle titre dans le film "Ben-Hur" ? </t>
+          <t xml:space="preserve"> le rôle titre dans le film ""Ben-Hur"" ? </t>
         </is>
       </c>
     </row>
@@ -2913,7 +2913,7 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t xml:space="preserve">Qui a dit : "Laissez Yeltsin prendre sa vodka et la Tchétchénie </t>
+          <t xml:space="preserve">Qui a dit : ""Laissez Yeltsin prendre sa vodka et la Tchétchénie </t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
@@ -2923,7 +2923,7 @@
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t xml:space="preserve"> sa liberté" ? </t>
+          <t xml:space="preserve"> sa liberté"" ? </t>
         </is>
       </c>
     </row>
@@ -2935,7 +2935,7 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t xml:space="preserve">Qui a dit : "Laissez Yeltsin </t>
+          <t xml:space="preserve">Qui a dit : ""Laissez Yeltsin </t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
@@ -2945,7 +2945,7 @@
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t xml:space="preserve"> sa vodka et la Tchétchénie obtenir sa liberté" ? </t>
+          <t xml:space="preserve"> sa vodka et la Tchétchénie obtenir sa liberté"" ? </t>
         </is>
       </c>
     </row>
@@ -2957,7 +2957,7 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>Qui a dit : "</t>
+          <t>Qui a dit : ""</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
@@ -2967,7 +2967,7 @@
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Yeltsin prendre sa vodka et la Tchétchénie obtenir sa liberté" ? </t>
+          <t xml:space="preserve"> Yeltsin prendre sa vodka et la Tchétchénie obtenir sa liberté"" ? </t>
         </is>
       </c>
     </row>
@@ -4181,7 +4181,7 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t xml:space="preserve">Je n'arrive plus à accéder à mon "espace personnel", que puis-je </t>
+          <t xml:space="preserve">Je n'arrive plus à accéder à mon ""espace personnel"", que puis-je </t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
@@ -5775,7 +5775,7 @@
       </c>
       <c r="D245" t="inlineStr">
         <is>
-          <t xml:space="preserve"> des millions d'imitations en plastique, connues sous le noms de "souliers Jelly". </t>
+          <t xml:space="preserve"> des millions d'imitations en plastique, connues sous le noms de ""souliers Jelly"". </t>
         </is>
       </c>
     </row>
@@ -5793,7 +5793,7 @@
       </c>
       <c r="D246" t="inlineStr">
         <is>
-          <t xml:space="preserve"> le créateur du soulier qui a entraîné des millions d'imitations en plastique, connues sous le noms de "souliers Jelly". </t>
+          <t xml:space="preserve"> le créateur du soulier qui a entraîné des millions d'imitations en plastique, connues sous le noms de ""souliers Jelly"". </t>
         </is>
       </c>
     </row>
@@ -5915,7 +5915,7 @@
       </c>
       <c r="B252" t="inlineStr">
         <is>
-          <t>Quel est le nom du versant "féminin" d'El Niño, qui a comme résultat de refroidir la température et d'</t>
+          <t>Quel est le nom du versant ""féminin"" d'El Niño, qui a comme résultat de refroidir la température et d'</t>
         </is>
       </c>
       <c r="C252" t="inlineStr">
@@ -5937,7 +5937,7 @@
       </c>
       <c r="B253" t="inlineStr">
         <is>
-          <t xml:space="preserve">Quel est le nom du versant "féminin" d'El Niño, qui a comme résultat de </t>
+          <t xml:space="preserve">Quel est le nom du versant ""féminin"" d'El Niño, qui a comme résultat de </t>
         </is>
       </c>
       <c r="C253" t="inlineStr">
@@ -6397,7 +6397,7 @@
       </c>
       <c r="D274" t="inlineStr">
         <is>
-          <t xml:space="preserve"> "El Niño" en espagnol ? </t>
+          <t xml:space="preserve"> ""El Niño"" en espagnol ? </t>
         </is>
       </c>
     </row>
@@ -6419,7 +6419,7 @@
       </c>
       <c r="D275" t="inlineStr">
         <is>
-          <t xml:space="preserve"> le terme "El Niño" ? </t>
+          <t xml:space="preserve"> le terme ""El Niño"" ? </t>
         </is>
       </c>
     </row>
@@ -6485,7 +6485,7 @@
       </c>
       <c r="D278" t="inlineStr">
         <is>
-          <t xml:space="preserve"> le rôle du parrain dans le film "The Godfather" ? </t>
+          <t xml:space="preserve"> le rôle du parrain dans le film ""The Godfather"" ? </t>
         </is>
       </c>
     </row>
@@ -6749,7 +6749,7 @@
       </c>
       <c r="D290" t="inlineStr">
         <is>
-          <t xml:space="preserve"> la chanson "Stardust" ? </t>
+          <t xml:space="preserve"> la chanson ""Stardust"" ? </t>
         </is>
       </c>
     </row>
@@ -7255,7 +7255,7 @@
       </c>
       <c r="D313" t="inlineStr">
         <is>
-          <t xml:space="preserve">-t-on le processus normal chez tout être vivant, y compris chez les êtres humains, par lequel des cellules sont programmées à se "suicider" ? </t>
+          <t xml:space="preserve">-t-on le processus normal chez tout être vivant, y compris chez les êtres humains, par lequel des cellules sont programmées à se ""suicider"" ? </t>
         </is>
       </c>
     </row>
@@ -7651,7 +7651,7 @@
       </c>
       <c r="D331" t="inlineStr">
         <is>
-          <t xml:space="preserve"> "The Pines of Rome" ? </t>
+          <t xml:space="preserve"> ""The Pines of Rome"" ? </t>
         </is>
       </c>
     </row>
@@ -7673,7 +7673,7 @@
       </c>
       <c r="D332" t="inlineStr">
         <is>
-          <t xml:space="preserve"> "Dubliners" ? </t>
+          <t xml:space="preserve"> ""Dubliners"" ? </t>
         </is>
       </c>
     </row>
@@ -7695,7 +7695,7 @@
       </c>
       <c r="D333" t="inlineStr">
         <is>
-          <t xml:space="preserve"> "Hamlet" ? </t>
+          <t xml:space="preserve"> ""Hamlet"" ? </t>
         </is>
       </c>
     </row>
@@ -7911,7 +7911,7 @@
       </c>
       <c r="D343" t="inlineStr">
         <is>
-          <t xml:space="preserve"> l'acronyme "laser" ? </t>
+          <t xml:space="preserve"> l'acronyme ""laser"" ? </t>
         </is>
       </c>
     </row>
@@ -8017,7 +8017,7 @@
       </c>
       <c r="D348" t="inlineStr">
         <is>
-          <t xml:space="preserve"> l'abréviation "OAS" ? </t>
+          <t xml:space="preserve"> l'abréviation ""OAS"" ? </t>
         </is>
       </c>
     </row>
@@ -8849,7 +8849,7 @@
       </c>
       <c r="D386" t="inlineStr">
         <is>
-          <t xml:space="preserve"> le jeu connu sous le nom de "bowling" ? </t>
+          <t xml:space="preserve"> le jeu connu sous le nom de ""bowling"" ? </t>
         </is>
       </c>
     </row>
@@ -9091,7 +9091,7 @@
       </c>
       <c r="D397" t="inlineStr">
         <is>
-          <t xml:space="preserve"> le "Silly Putty" ? </t>
+          <t xml:space="preserve"> le ""Silly Putty"" ? </t>
         </is>
       </c>
     </row>
@@ -9157,7 +9157,7 @@
       </c>
       <c r="D400" t="inlineStr">
         <is>
-          <t xml:space="preserve"> l'acronyme anglais "hazmat" ? </t>
+          <t xml:space="preserve"> l'acronyme anglais ""hazmat"" ? </t>
         </is>
       </c>
     </row>
@@ -9351,7 +9351,7 @@
       </c>
       <c r="D409" t="inlineStr">
         <is>
-          <t xml:space="preserve"> l'acronyme "CPR" ? </t>
+          <t xml:space="preserve"> l'acronyme ""CPR"" ? </t>
         </is>
       </c>
     </row>
@@ -9505,7 +9505,7 @@
       </c>
       <c r="D416" t="inlineStr">
         <is>
-          <t xml:space="preserve"> "caliente" en anglais ? </t>
+          <t xml:space="preserve"> ""caliente"" en anglais ? </t>
         </is>
       </c>
     </row>
@@ -9527,7 +9527,7 @@
       </c>
       <c r="D417" t="inlineStr">
         <is>
-          <t xml:space="preserve"> les "Muppets" ? </t>
+          <t xml:space="preserve"> les ""Muppets"" ? </t>
         </is>
       </c>
     </row>
@@ -9589,7 +9589,7 @@
       </c>
       <c r="D420" t="inlineStr">
         <is>
-          <t xml:space="preserve"> le terme "cyberspace" dans son roman "Neuromancer" ? </t>
+          <t xml:space="preserve"> le terme ""cyberspace"" dans son roman ""Neuromancer"" ? </t>
         </is>
       </c>
     </row>
@@ -9761,7 +9761,7 @@
       </c>
       <c r="D428" t="inlineStr">
         <is>
-          <t xml:space="preserve"> le livre "The Grinch Who Stole Christmas" ? </t>
+          <t xml:space="preserve"> le livre ""The Grinch Who Stole Christmas"" ? </t>
         </is>
       </c>
     </row>
@@ -9783,7 +9783,7 @@
       </c>
       <c r="D429" t="inlineStr">
         <is>
-          <t xml:space="preserve"> "Brave New World" ? </t>
+          <t xml:space="preserve"> ""Brave New World"" ? </t>
         </is>
       </c>
     </row>
@@ -9805,7 +9805,7 @@
       </c>
       <c r="D430" t="inlineStr">
         <is>
-          <t xml:space="preserve"> le livre "Song of Solomon" ? </t>
+          <t xml:space="preserve"> le livre ""Song of Solomon"" ? </t>
         </is>
       </c>
     </row>
@@ -9827,7 +9827,7 @@
       </c>
       <c r="D431" t="inlineStr">
         <is>
-          <t xml:space="preserve"> le rôle de Jake dans l'émission télévisée intitulée "Jake and the Fatman" ? </t>
+          <t xml:space="preserve"> le rôle de Jake dans l'émission télévisée intitulée ""Jake and the Fatman"" ? </t>
         </is>
       </c>
     </row>
@@ -9849,7 +9849,7 @@
       </c>
       <c r="D432" t="inlineStr">
         <is>
-          <t xml:space="preserve"> le rôle de Fatman dans l'émission télévisée intitulée "Jake and the Fatman" ? </t>
+          <t xml:space="preserve"> le rôle de Fatman dans l'émission télévisée intitulée ""Jake and the Fatman"" ? </t>
         </is>
       </c>
     </row>
@@ -9871,7 +9871,7 @@
       </c>
       <c r="D433" t="inlineStr">
         <is>
-          <t xml:space="preserve"> la météo dans l'émission télévisée "Good Morning America" ? </t>
+          <t xml:space="preserve"> la météo dans l'émission télévisée ""Good Morning America"" ? </t>
         </is>
       </c>
     </row>
@@ -9915,7 +9915,7 @@
       </c>
       <c r="D435" t="inlineStr">
         <is>
-          <t xml:space="preserve"> "cric, crac, croc" ? </t>
+          <t xml:space="preserve"> ""cric, crac, croc"" ? </t>
         </is>
       </c>
     </row>
@@ -10043,7 +10043,7 @@
       </c>
       <c r="D441" t="inlineStr">
         <is>
-          <t xml:space="preserve"> le personnage de Rosanne Rosanna-Dana dans l'émission télévisée intitulée "Saturday Night Live" ? </t>
+          <t xml:space="preserve"> le personnage de Rosanne Rosanna-Dana dans l'émission télévisée intitulée ""Saturday Night Live"" ? </t>
         </is>
       </c>
     </row>
@@ -10083,7 +10083,7 @@
       </c>
       <c r="D443" t="inlineStr">
         <is>
-          <t xml:space="preserve"> la chanson "Silent Night" ? </t>
+          <t xml:space="preserve"> la chanson ""Silent Night"" ? </t>
         </is>
       </c>
     </row>
@@ -10193,7 +10193,7 @@
       </c>
       <c r="D448" t="inlineStr">
         <is>
-          <t xml:space="preserve"> la collection de poupées "American Girl" ? </t>
+          <t xml:space="preserve"> la collection de poupées ""American Girl"" ? </t>
         </is>
       </c>
     </row>
@@ -10679,7 +10679,7 @@
       </c>
       <c r="D471" t="inlineStr">
         <is>
-          <t xml:space="preserve"> la chanson "Boys of Summer" ? </t>
+          <t xml:space="preserve"> la chanson ""Boys of Summer"" ? </t>
         </is>
       </c>
     </row>
@@ -10735,7 +10735,7 @@
       </c>
       <c r="B474" t="inlineStr">
         <is>
-          <t xml:space="preserve">Quand "la Grande dépression" </t>
+          <t xml:space="preserve">Quand ""la Grande dépression"" </t>
         </is>
       </c>
       <c r="C474" t="inlineStr">
@@ -10855,7 +10855,7 @@
       </c>
       <c r="D479" t="inlineStr">
         <is>
-          <t xml:space="preserve"> "The Scarlett Letter" ? </t>
+          <t xml:space="preserve"> ""The Scarlett Letter"" ? </t>
         </is>
       </c>
     </row>
@@ -10939,7 +10939,7 @@
       </c>
       <c r="D483" t="inlineStr">
         <is>
-          <t xml:space="preserve"> l'acronyme anglais "sids" ? </t>
+          <t xml:space="preserve"> l'acronyme anglais ""sids"" ? </t>
         </is>
       </c>
     </row>
@@ -11005,7 +11005,7 @@
       </c>
       <c r="D486" t="inlineStr">
         <is>
-          <t xml:space="preserve"> "The Pit and the Pendulum" ? </t>
+          <t xml:space="preserve"> ""The Pit and the Pendulum"" ? </t>
         </is>
       </c>
     </row>
@@ -11049,7 +11049,7 @@
       </c>
       <c r="D488" t="inlineStr">
         <is>
-          <t xml:space="preserve"> "An Ideal Husband" ? </t>
+          <t xml:space="preserve"> ""An Ideal Husband"" ? </t>
         </is>
       </c>
     </row>
@@ -11115,7 +11115,7 @@
       </c>
       <c r="D491" t="inlineStr">
         <is>
-          <t xml:space="preserve"> le professeur dans "Dead Poet 's Society" ? </t>
+          <t xml:space="preserve"> le professeur dans ""Dead Poet 's Society"" ? </t>
         </is>
       </c>
     </row>
@@ -11291,7 +11291,7 @@
       </c>
       <c r="D499" t="inlineStr">
         <is>
-          <t xml:space="preserve"> référence "Final Four" ? </t>
+          <t xml:space="preserve"> référence ""Final Four"" ? </t>
         </is>
       </c>
     </row>
@@ -11375,7 +11375,7 @@
       </c>
       <c r="D503" t="inlineStr">
         <is>
-          <t xml:space="preserve"> "San Fransisco" ? </t>
+          <t xml:space="preserve"> ""San Fransisco"" ? </t>
         </is>
       </c>
     </row>
@@ -11595,7 +11595,7 @@
       </c>
       <c r="D513" t="inlineStr">
         <is>
-          <t xml:space="preserve"> l'expression anglaise "hazmat" ? </t>
+          <t xml:space="preserve"> l'expression anglaise ""hazmat"" ? </t>
         </is>
       </c>
     </row>
@@ -12023,7 +12023,7 @@
       </c>
       <c r="D533" t="inlineStr">
         <is>
-          <t xml:space="preserve"> "thalassémie". </t>
+          <t xml:space="preserve"> ""thalassémie"". </t>
         </is>
       </c>
     </row>
@@ -12327,7 +12327,7 @@
       </c>
       <c r="D547" t="inlineStr">
         <is>
-          <t xml:space="preserve"> l'acronyme "CPR" ? </t>
+          <t xml:space="preserve"> l'acronyme ""CPR"" ? </t>
         </is>
       </c>
     </row>
@@ -12349,7 +12349,7 @@
       </c>
       <c r="D548" t="inlineStr">
         <is>
-          <t xml:space="preserve"> les lettres "CPR" ? </t>
+          <t xml:space="preserve"> les lettres ""CPR"" ? </t>
         </is>
       </c>
     </row>
@@ -12635,7 +12635,7 @@
       </c>
       <c r="D561" t="inlineStr">
         <is>
-          <t xml:space="preserve"> "Les Muppets" ? </t>
+          <t xml:space="preserve"> ""Les Muppets"" ? </t>
         </is>
       </c>
     </row>
@@ -12653,7 +12653,7 @@
       </c>
       <c r="D562" t="inlineStr">
         <is>
-          <t xml:space="preserve"> le créateur des "Muppets". </t>
+          <t xml:space="preserve"> le créateur des ""Muppets"". </t>
         </is>
       </c>
     </row>
@@ -12795,7 +12795,7 @@
       </c>
       <c r="D569" t="inlineStr">
         <is>
-          <t xml:space="preserve">-on l'abréviation de "Original Equipment Manufacturer" ? </t>
+          <t xml:space="preserve">-on l'abréviation de ""Original Equipment Manufacturer"" ? </t>
         </is>
       </c>
     </row>
@@ -12861,7 +12861,7 @@
       </c>
       <c r="D572" t="inlineStr">
         <is>
-          <t xml:space="preserve">-on "caliente" en anglais ? </t>
+          <t xml:space="preserve">-on ""caliente"" en anglais ? </t>
         </is>
       </c>
     </row>
@@ -13627,7 +13627,7 @@
       </c>
       <c r="D607" t="inlineStr">
         <is>
-          <t xml:space="preserve"> "Phi bêta kappa" ? </t>
+          <t xml:space="preserve"> ""Phi bêta kappa"" ? </t>
         </is>
       </c>
     </row>
@@ -13847,7 +13847,7 @@
       </c>
       <c r="D617" t="inlineStr">
         <is>
-          <t xml:space="preserve"> pour devise "Live Free or Die" ? </t>
+          <t xml:space="preserve"> pour devise ""Live Free or Die"" ? </t>
         </is>
       </c>
     </row>
@@ -13935,7 +13935,7 @@
       </c>
       <c r="D621" t="inlineStr">
         <is>
-          <t xml:space="preserve"> le jeu de cerceau appelé "hula hoop" ? </t>
+          <t xml:space="preserve"> le jeu de cerceau appelé ""hula hoop"" ? </t>
         </is>
       </c>
     </row>
@@ -13979,7 +13979,7 @@
       </c>
       <c r="D623" t="inlineStr">
         <is>
-          <t xml:space="preserve"> le "slinky" ? </t>
+          <t xml:space="preserve"> le ""slinky"" ? </t>
         </is>
       </c>
     </row>
@@ -14133,7 +14133,7 @@
       </c>
       <c r="D630" t="inlineStr">
         <is>
-          <t xml:space="preserve"> "Sitting Shiva" ? </t>
+          <t xml:space="preserve"> ""Sitting Shiva"" ? </t>
         </is>
       </c>
     </row>
@@ -14397,7 +14397,7 @@
       </c>
       <c r="D642" t="inlineStr">
         <is>
-          <t xml:space="preserve"> le mot "quinzaine" ? </t>
+          <t xml:space="preserve"> le mot ""quinzaine"" ? </t>
         </is>
       </c>
     </row>
@@ -14551,7 +14551,7 @@
       </c>
       <c r="D649" t="inlineStr">
         <is>
-          <t xml:space="preserve"> les lettres "USPS" ? </t>
+          <t xml:space="preserve"> les lettres ""USPS"" ? </t>
         </is>
       </c>
     </row>
@@ -14661,7 +14661,7 @@
       </c>
       <c r="D654" t="inlineStr">
         <is>
-          <t xml:space="preserve"> le terme technique "ISDN" ? </t>
+          <t xml:space="preserve"> le terme technique ""ISDN"" ? </t>
         </is>
       </c>
     </row>
@@ -14789,7 +14789,7 @@
       </c>
       <c r="D660" t="inlineStr">
         <is>
-          <t xml:space="preserve"> "The Devine Comedy" ? </t>
+          <t xml:space="preserve"> ""The Devine Comedy"" ? </t>
         </is>
       </c>
     </row>
@@ -14811,7 +14811,7 @@
       </c>
       <c r="D661" t="inlineStr">
         <is>
-          <t xml:space="preserve">-t-on "love" un score nul au tennis ? </t>
+          <t xml:space="preserve">-t-on ""love"" un score nul au tennis ? </t>
         </is>
       </c>
     </row>
@@ -14833,7 +14833,7 @@
       </c>
       <c r="D662" t="inlineStr">
         <is>
-          <t xml:space="preserve"> "ciao" ? </t>
+          <t xml:space="preserve"> ""ciao"" ? </t>
         </is>
       </c>
     </row>
@@ -14917,7 +14917,7 @@
       </c>
       <c r="D666" t="inlineStr">
         <is>
-          <t xml:space="preserve"> les lettres "CPR" ? </t>
+          <t xml:space="preserve"> les lettres ""CPR"" ? </t>
         </is>
       </c>
     </row>
@@ -15049,7 +15049,7 @@
       </c>
       <c r="D672" t="inlineStr">
         <is>
-          <t xml:space="preserve"> l'acronyme "NASA" ? </t>
+          <t xml:space="preserve"> l'acronyme ""NASA"" ? </t>
         </is>
       </c>
     </row>
@@ -15093,7 +15093,7 @@
       </c>
       <c r="D674" t="inlineStr">
         <is>
-          <t xml:space="preserve"> "NASA" ? </t>
+          <t xml:space="preserve"> ""NASA"" ? </t>
         </is>
       </c>
     </row>
@@ -15203,7 +15203,7 @@
       </c>
       <c r="D679" t="inlineStr">
         <is>
-          <t xml:space="preserve"> l'abréviation "sos" ? </t>
+          <t xml:space="preserve"> l'abréviation ""sos"" ? </t>
         </is>
       </c>
     </row>
@@ -16119,7 +16119,7 @@
       </c>
       <c r="D721" t="inlineStr">
         <is>
-          <t xml:space="preserve">-on "maison" en espagnol ? </t>
+          <t xml:space="preserve">-on ""maison"" en espagnol ? </t>
         </is>
       </c>
     </row>
@@ -16163,7 +16163,7 @@
       </c>
       <c r="D723" t="inlineStr">
         <is>
-          <t xml:space="preserve"> "The Messiah" ? </t>
+          <t xml:space="preserve"> ""The Messiah"" ? </t>
         </is>
       </c>
     </row>
@@ -16295,7 +16295,7 @@
       </c>
       <c r="D729" t="inlineStr">
         <is>
-          <t xml:space="preserve"> "East is east, west is west and never the twain shall meet" ? </t>
+          <t xml:space="preserve"> ""East is east, west is west and never the twain shall meet"" ? </t>
         </is>
       </c>
     </row>
@@ -16361,7 +16361,7 @@
       </c>
       <c r="D732" t="inlineStr">
         <is>
-          <t xml:space="preserve"> : "Music hath charm to soothe the savage beast" ? </t>
+          <t xml:space="preserve"> : ""Music hath charm to soothe the savage beast"" ? </t>
         </is>
       </c>
     </row>
@@ -16383,7 +16383,7 @@
       </c>
       <c r="D733" t="inlineStr">
         <is>
-          <t xml:space="preserve"> les lettres "CPR" ? </t>
+          <t xml:space="preserve"> les lettres ""CPR"" ? </t>
         </is>
       </c>
     </row>
@@ -16471,7 +16471,7 @@
       </c>
       <c r="D737" t="inlineStr">
         <is>
-          <t xml:space="preserve"> "NASDAQ" ? </t>
+          <t xml:space="preserve"> ""NASDAQ"" ? </t>
         </is>
       </c>
     </row>
@@ -16493,7 +16493,7 @@
       </c>
       <c r="D738" t="inlineStr">
         <is>
-          <t xml:space="preserve"> le film "Fail Safe" ? </t>
+          <t xml:space="preserve"> le film ""Fail Safe"" ? </t>
         </is>
       </c>
     </row>
@@ -16515,7 +16515,7 @@
       </c>
       <c r="D739" t="inlineStr">
         <is>
-          <t xml:space="preserve"> "Sunflowers" ? </t>
+          <t xml:space="preserve"> ""Sunflowers"" ? </t>
         </is>
       </c>
     </row>
@@ -16559,7 +16559,7 @@
       </c>
       <c r="D741" t="inlineStr">
         <is>
-          <t xml:space="preserve"> "ADN" ? </t>
+          <t xml:space="preserve"> ""ADN"" ? </t>
         </is>
       </c>
     </row>
@@ -16977,7 +16977,7 @@
       </c>
       <c r="D760" t="inlineStr">
         <is>
-          <t xml:space="preserve"> pour surnom "Mr. October" ? </t>
+          <t xml:space="preserve"> pour surnom ""Mr. October"" ? </t>
         </is>
       </c>
     </row>
@@ -17043,7 +17043,7 @@
       </c>
       <c r="D763" t="inlineStr">
         <is>
-          <t xml:space="preserve"> "R &amp; B" ? </t>
+          <t xml:space="preserve"> ""R &amp; B"" ? </t>
         </is>
       </c>
     </row>
@@ -17373,7 +17373,7 @@
       </c>
       <c r="D778" t="inlineStr">
         <is>
-          <t xml:space="preserve"> "TB" dans les statistiques au baseball ? </t>
+          <t xml:space="preserve"> ""TB"" dans les statistiques au baseball ? </t>
         </is>
       </c>
     </row>
@@ -17395,7 +17395,7 @@
       </c>
       <c r="D779" t="inlineStr">
         <is>
-          <t xml:space="preserve">-on "French fries" en français ? </t>
+          <t xml:space="preserve">-on ""French fries"" en français ? </t>
         </is>
       </c>
     </row>
@@ -17417,7 +17417,7 @@
       </c>
       <c r="D780" t="inlineStr">
         <is>
-          <t xml:space="preserve">-ils le "English Channel" ? </t>
+          <t xml:space="preserve">-ils le ""English Channel"" ? </t>
         </is>
       </c>
     </row>
@@ -17439,7 +17439,7 @@
       </c>
       <c r="D781" t="inlineStr">
         <is>
-          <t xml:space="preserve"> "E pluribus unum" ? </t>
+          <t xml:space="preserve"> ""E pluribus unum"" ? </t>
         </is>
       </c>
     </row>
@@ -17527,7 +17527,7 @@
       </c>
       <c r="D785" t="inlineStr">
         <is>
-          <t xml:space="preserve"> la chanson "Happy Together" ? </t>
+          <t xml:space="preserve"> la chanson ""Happy Together"" ? </t>
         </is>
       </c>
     </row>
@@ -17637,7 +17637,7 @@
       </c>
       <c r="D790" t="inlineStr">
         <is>
-          <t xml:space="preserve"> référence le livre "Charge of the Light Brigade" ? </t>
+          <t xml:space="preserve"> référence le livre ""Charge of the Light Brigade"" ? </t>
         </is>
       </c>
     </row>
@@ -17659,7 +17659,7 @@
       </c>
       <c r="D791" t="inlineStr">
         <is>
-          <t xml:space="preserve"> "DEA" ? </t>
+          <t xml:space="preserve"> ""DEA"" ? </t>
         </is>
       </c>
     </row>
@@ -17681,7 +17681,7 @@
       </c>
       <c r="D792" t="inlineStr">
         <is>
-          <t xml:space="preserve"> pour slogan "Quality is job 1" ? </t>
+          <t xml:space="preserve"> pour slogan ""Quality is job 1"" ? </t>
         </is>
       </c>
     </row>
@@ -17897,7 +17897,7 @@
       </c>
       <c r="D802" t="inlineStr">
         <is>
-          <t xml:space="preserve"> l'abréviation "WASP" ? </t>
+          <t xml:space="preserve"> l'abréviation ""WASP"" ? </t>
         </is>
       </c>
     </row>
@@ -17941,7 +17941,7 @@
       </c>
       <c r="D804" t="inlineStr">
         <is>
-          <t xml:space="preserve">-on "cochon" en espagnol ? </t>
+          <t xml:space="preserve">-on ""cochon"" en espagnol ? </t>
         </is>
       </c>
     </row>
@@ -18183,7 +18183,7 @@
       </c>
       <c r="D815" t="inlineStr">
         <is>
-          <t xml:space="preserve"> "Fiddler on the Roof" ? </t>
+          <t xml:space="preserve"> ""Fiddler on the Roof"" ? </t>
         </is>
       </c>
     </row>
@@ -18293,7 +18293,7 @@
       </c>
       <c r="D820" t="inlineStr">
         <is>
-          <t xml:space="preserve"> "HTML" ? </t>
+          <t xml:space="preserve"> ""HTML"" ? </t>
         </is>
       </c>
     </row>
@@ -18909,7 +18909,7 @@
       </c>
       <c r="D848" t="inlineStr">
         <is>
-          <t xml:space="preserve"> : "I have not begun to fight !" ? </t>
+          <t xml:space="preserve"> : ""I have not begun to fight !"" ? </t>
         </is>
       </c>
     </row>
